--- a/leep.xlsx
+++ b/leep.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="GA_iter" sheetId="2" r:id="rId2"/>
+    <x:sheet name="GA_IterationLead" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -64,9 +64,6 @@
     <x:t>Url should be launched</x:t>
   </x:si>
   <x:si>
-    <x:t>Approved</x:t>
-  </x:si>
-  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
@@ -119,6 +116,69 @@
   </x:si>
   <x:si>
     <x:t>User should be able to Click on New Button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter value in the last name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to enter the data in lastname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter value in the company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to enter the data in company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter value in the lead source</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Should be able to enter the data in lead source</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter value in the Projected Project Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Should be able to enter the data in Projected Project Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter value in the Lead Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Should be able to enter the data in the lead status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on save button</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">User should be able to Click on save </x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Create_Lead_Assessment02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -202,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0">
-  <x:autoFilter ref="A1:K8"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K27" totalsRowShown="0">
+  <x:autoFilter ref="A1:K27"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -509,7 +569,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K8"/>
+  <x:dimension ref="A1:K27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -521,8 +581,8 @@
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="23.130625000000002" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="40.980625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="38.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="58.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -582,9 +642,7 @@
       <x:c r="H2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
       <x:c r="K2" s="0" t="s"/>
     </x:row>
@@ -595,13 +653,13 @@
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -614,13 +672,13 @@
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -633,13 +691,13 @@
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -652,13 +710,13 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -671,13 +729,13 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -690,17 +748,384 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
       <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s"/>
+      <x:c r="F23" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+      <x:c r="K23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s"/>
+      <x:c r="F24" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+      <x:c r="K24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="A25" s="0" t="s"/>
+      <x:c r="B25" s="0" t="s"/>
+      <x:c r="C25" s="0" t="s"/>
+      <x:c r="D25" s="0" t="s"/>
+      <x:c r="E25" s="0" t="s"/>
+      <x:c r="F25" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+      <x:c r="K25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:11">
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s"/>
+      <x:c r="F26" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+      <x:c r="K26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:11">
+      <x:c r="A27" s="0" t="s"/>
+      <x:c r="B27" s="0" t="s"/>
+      <x:c r="C27" s="0" t="s"/>
+      <x:c r="D27" s="0" t="s"/>
+      <x:c r="E27" s="0" t="s"/>
+      <x:c r="F27" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+      <x:c r="K27" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
